--- a/Test Data/Verify_24V_Load_On_Changing_CPU_Of_Panel.xlsx
+++ b/Test Data/Verify_24V_Load_On_Changing_CPU_Of_Panel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E6FD4-FEDB-400D-827F-281D72B2C2C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017AE758-2F71-4BA9-A077-C33E4652924F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Color Codes</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>verify 24V Load On Changing CPU of the panel</t>
+  </si>
+  <si>
+    <t>0.000</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -285,6 +288,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,13 +697,13 @@
         <v>17</v>
       </c>
       <c r="H8" s="3">
-        <v>0.17399999999999999</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="3">
-        <v>0.17399999999999999</v>
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -724,14 +728,14 @@
       <c r="G9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="3">
-        <v>0.17399999999999999</v>
+      <c r="H9" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="3">
-        <v>0.17399999999999999</v>
+      <c r="J9" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -861,5 +865,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Verify_24V_Load_On_Changing_CPU_Of_Panel.xlsx
+++ b/Test Data/Verify_24V_Load_On_Changing_CPU_Of_Panel.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017AE758-2F71-4BA9-A077-C33E4652924F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -145,13 +144,13 @@
     <t>verify 24V Load On Changing CPU of the panel</t>
   </si>
   <si>
-    <t>0.000</t>
+    <t>0.205</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,13 +281,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,11 +567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,12 +589,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -604,10 +603,10 @@
       <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -728,13 +727,13 @@
       <c r="G9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -749,7 +748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02E869E-8A1C-4935-AE0C-755F45D5F473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/Verify_24V_Load_On_Changing_CPU_Of_Panel.xlsx
+++ b/Test Data/Verify_24V_Load_On_Changing_CPU_Of_Panel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4B834-C9F6-404C-8504-37743DC7AE0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>Color Codes</t>
   </si>
@@ -145,12 +140,18 @@
   </si>
   <si>
     <t>0.205</t>
+  </si>
+  <si>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>Main Processor 24V (A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -258,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -287,6 +288,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,11 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,9 +590,10 @@
     <col min="8" max="8" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -596,7 +601,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -608,7 +613,7 @@
       </c>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -620,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -632,16 +637,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -672,8 +677,11 @@
       <c r="J7" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -704,8 +712,11 @@
       <c r="J8" s="3">
         <v>0.39600000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -735,6 +746,9 @@
       </c>
       <c r="J9" s="14" t="s">
         <v>37</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/Verify_24V_Load_On_Changing_CPU_Of_Panel.xlsx
+++ b/Test Data/Verify_24V_Load_On_Changing_CPU_Of_Panel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4B834-C9F6-404C-8504-37743DC7AE0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -145,13 +144,13 @@
     <t>Loading Details Name</t>
   </si>
   <si>
-    <t>Main Processor 24V (A)</t>
+    <t>24V Rail(A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,14 +282,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,12 +593,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -608,10 +607,10 @@
       <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -712,7 +711,7 @@
       <c r="J8" s="3">
         <v>0.39600000000000002</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -747,7 +746,7 @@
       <c r="J9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -762,7 +761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/Verify_24V_Load_On_Changing_CPU_Of_Panel.xlsx
+++ b/Test Data/Verify_24V_Load_On_Changing_CPU_Of_Panel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EC4C8F-C026-4FD9-BD5C-C55634413182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>Color Codes</t>
   </si>
@@ -111,9 +112,6 @@
     <t/>
   </si>
   <si>
-    <t>NGC-1532</t>
-  </si>
-  <si>
     <t>CPU 801</t>
   </si>
   <si>
@@ -138,19 +136,25 @@
     <t>verify 24V Load On Changing CPU of the panel</t>
   </si>
   <si>
-    <t>0.205</t>
-  </si>
-  <si>
     <t>Loading Details Name</t>
   </si>
   <si>
     <t>24V Rail(A)</t>
+  </si>
+  <si>
+    <t>0.100</t>
+  </si>
+  <si>
+    <t>ZX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-571/T1394 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,11 +574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -617,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -629,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -662,22 +666,22 @@
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="K7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -688,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>14</v>
@@ -697,33 +701,33 @@
         <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="3">
-        <v>0.39600000000000002</v>
+      <c r="H8" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="3">
-        <v>0.39600000000000002</v>
+      <c r="J8" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>14</v>
@@ -732,22 +736,22 @@
         <v>13</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/Verify_24V_Load_On_Changing_CPU_Of_Panel.xlsx
+++ b/Test Data/Verify_24V_Load_On_Changing_CPU_Of_Panel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EC4C8F-C026-4FD9-BD5C-C55634413182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFEA7B7-7031-4DDB-9617-73B7C1EE9D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,10 +145,10 @@
     <t>0.100</t>
   </si>
   <si>
-    <t>ZX1</t>
-  </si>
-  <si>
     <t xml:space="preserve">NGC-571/T1394 </t>
+  </si>
+  <si>
+    <t>ZX4</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -721,7 +721,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
